--- a/测试用文件/CAD简单制图数据模板v1.0.xlsx
+++ b/测试用文件/CAD简单制图数据模板v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ahindustries0-my.sharepoint.com/personal/weli_ah-industries_com/Documents/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My program\Projects\dwg_creator\测试用文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{9C7286D3-5F44-4A9A-97BE-6EF81865B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD29552-D717-4C75-BB29-308BF000B9EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF686E37-51CF-4ACA-B11C-F95CCDBDE4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{878AB358-DF22-4633-989A-FD78618B0AEA}"/>
+    <workbookView xWindow="4380" yWindow="3420" windowWidth="20880" windowHeight="11835" xr2:uid="{878AB358-DF22-4633-989A-FD78618B0AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长/外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽/内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圆角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +92,14 @@
   </si>
   <si>
     <t>不需要带扩展名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长-外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽-内径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +109,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -200,10 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -553,7 +544,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="8">
         <v>100</v>
@@ -614,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8">
         <v>100</v>
@@ -631,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8">
         <v>100</v>
@@ -650,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8">
         <v>200</v>
@@ -671,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8">
         <v>50</v>
@@ -688,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="8">
         <v>99</v>
@@ -707,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
         <v>50</v>
@@ -728,10 +719,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="8">
         <v>50</v>
@@ -745,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="8">
         <v>5</v>
